--- a/OSM tags/tag_processing.xlsx
+++ b/OSM tags/tag_processing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeTool-Processing-POI-Landuse\OSM tags\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Transportation Data\OSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EBC35-526E-47CD-9AD7-0FA2E9B71E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DEA592-E2D9-4781-830B-E5DFBA34AAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="highway" sheetId="1" r:id="rId1"/>
@@ -2845,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -5530,7 +5530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC0AF8D-B562-4E32-8FD5-17B209F9A0EC}">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
